--- a/Excel/StartConfig/Localhost/StartSceneConfig@s.xlsx
+++ b/Excel/StartConfig/Localhost/StartSceneConfig@s.xlsx
@@ -5,23 +5,24 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\ET\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\ET_Branch\Excel\StartConfig\Localhost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078AD0C1-2703-4F0D-98EC-E75EF8C3D36C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F71E95A-C73C-4D73-B60C-3B3CACB1B1D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
     <sheet name="Robot区" sheetId="2" r:id="rId2"/>
+    <sheet name="Router" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="29">
   <si>
     <t>Id</t>
   </si>
@@ -90,13 +91,37 @@
   </si>
   <si>
     <t>Robot01</t>
+  </si>
+  <si>
+    <t>Router</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Router01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Router02</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Router03</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Router04</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RouterManager</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +148,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -151,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -164,6 +196,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -473,7 +508,7 @@
   <dimension ref="C3:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -671,8 +706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C3:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -768,4 +803,189 @@
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEAD4B0A-9154-4971-9279-5508340B28DA}">
+  <dimension ref="C3:H10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
+    <col min="3" max="5" width="12.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.375" style="3" customWidth="1"/>
+    <col min="7" max="8" width="13.125" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C6" s="5">
+        <v>300</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5">
+        <v>3</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="5">
+        <v>10300</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C7" s="5">
+        <v>301</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5">
+        <v>3</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="5">
+        <v>10301</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C8" s="5">
+        <v>302</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5">
+        <v>3</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="5">
+        <v>10302</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C9" s="5">
+        <v>303</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5">
+        <v>3</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="5">
+        <v>10303</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C10" s="5">
+        <v>304</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5">
+        <v>3</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="5">
+        <v>10304</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>